--- a/dataproject/relative_poverty.xlsx
+++ b/dataproject/relative_poverty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petra/Desktop/KU/Introduction to Programming/Intro to Prog /projects-2024-petra-maritza-noah/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9B06BD-AC74-1041-97BE-F44E110FD68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80E6BF-F8DF-9D41-8492-9488A25FB9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
